--- a/timeline/ObvionRoadmap.xlsx
+++ b/timeline/ObvionRoadmap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rnadorp/Documents/Prive/D3/timeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97F4082-61F4-4D42-A9B0-7D2C3C9DB050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50877D0D-D206-7340-9F64-B6500FA0D483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{01056964-EFF9-CC4B-9F29-15A97D6DAB56}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{01056964-EFF9-CC4B-9F29-15A97D6DAB56}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeLine" sheetId="10" r:id="rId1"/>
@@ -755,7 +755,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
